--- a/mnf实验记录.xlsx
+++ b/mnf实验记录.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="59">
+  <si>
+    <t>实验</t>
+  </si>
   <si>
     <t>日期</t>
   </si>
@@ -61,6 +64,18 @@
     <t>r_precision</t>
   </si>
   <si>
+    <t>交叉验证(将训练集分成五分，每次选择其中一份为验证集进行五次实验，每次实验进行10次)，最终求auc，acc均值</t>
+  </si>
+  <si>
+    <t>交叉验证auc</t>
+  </si>
+  <si>
+    <t>交叉验证acc</t>
+  </si>
+  <si>
+    <t>实验1</t>
+  </si>
+  <si>
     <t>2024.7.14</t>
   </si>
   <si>
@@ -85,6 +100,12 @@
     <t>西溪验证集</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>训练集</t>
   </si>
   <si>
@@ -94,6 +115,9 @@
     <t>浙一验证集</t>
   </si>
   <si>
+    <t>实验2</t>
+  </si>
+  <si>
     <t>2024.7.16</t>
   </si>
   <si>
@@ -103,7 +127,7 @@
     <t>E:\yinda\mnf\result\mlp2</t>
   </si>
   <si>
-    <t>实验1:trunk采用MLP(增加训练集迭代记录和设置分类auc为运行指标)</t>
+    <t>实验2:trunk采用MLP(增加训练集迭代记录和设置分类auc为运行指标)</t>
   </si>
   <si>
     <t>14-15</t>
@@ -112,7 +136,61 @@
     <t>E:\yinda\mnf\result\oneconv</t>
   </si>
   <si>
-    <t>实验1:trunk采用一维卷积</t>
+    <t>实验2:trunk采用一维卷积(增加训练集迭代记录和设置分类auc为运行指标)与实验1对比</t>
+  </si>
+  <si>
+    <t>实验2:trunk采用一维卷积(增加训练集迭代记录和设置分类auc为运行指标)</t>
+  </si>
+  <si>
+    <t>实验3</t>
+  </si>
+  <si>
+    <t>E:\yinda\mnf\result\mlp3</t>
+  </si>
+  <si>
+    <t>实验3:trunk采用MLP，对于实验2来说(增加全部数据集，全部without训练集这两个数据集的迭代计算)，以及以训练集进行交叉验证</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>全体数据集</t>
+  </si>
+  <si>
+    <t>全体数据集without训练集</t>
+  </si>
+  <si>
+    <t>2024.7.18</t>
+  </si>
+  <si>
+    <t>10-17</t>
+  </si>
+  <si>
+    <t>E:\yinda\mnf\result\oneconv2</t>
+  </si>
+  <si>
+    <t>实验3:trunk采用一维卷积，对于实验2来说(增加全部数据集，全部without训练集这两个数据集的迭代计算)，以及以训练集进行交叉验证</t>
+  </si>
+  <si>
+    <t>实验4</t>
+  </si>
+  <si>
+    <t>2024.7.21</t>
+  </si>
+  <si>
+    <t>9-15</t>
+  </si>
+  <si>
+    <t>E:\yinda\mnf\result\mlp_newdata</t>
+  </si>
+  <si>
+    <t>实验4:trunk采用MLP，用新数据集重现实验3</t>
+  </si>
+  <si>
+    <t>E:\yinda\mnf\result\oneconv_newdata</t>
+  </si>
+  <si>
+    <t>实验4:trunk采用一维卷积，用新数据集重现实验3</t>
   </si>
 </sst>
 </file>
@@ -735,9 +813,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1057,24 +1135,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="19.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="20.7777777777778" customWidth="1"/>
-    <col min="5" max="5" width="24.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="26.8888888888889" customWidth="1"/>
-    <col min="9" max="9" width="34.3333333333333" customWidth="1"/>
-    <col min="13" max="13" width="25.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="23" customWidth="1"/>
+    <col min="2" max="2" width="19.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="20.7777777777778" customWidth="1"/>
+    <col min="6" max="6" width="26.4444444444444" customWidth="1"/>
+    <col min="8" max="8" width="26.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="30.7777777777778" customWidth="1"/>
+    <col min="11" max="11" width="16.3333333333333" customWidth="1"/>
+    <col min="14" max="14" width="25.4444444444444" customWidth="1"/>
+    <col min="16" max="16" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1099,13 +1178,13 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" t="s">
@@ -1120,569 +1199,2140 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="2" spans="2:11">
+      <c r="B2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2">
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3">
         <v>100</v>
       </c>
-      <c r="I2">
+      <c r="J3">
         <v>89</v>
       </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2">
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3">
         <v>0.6939</v>
       </c>
-      <c r="L2">
+      <c r="M3">
         <v>0.6633</v>
       </c>
-      <c r="M2">
+      <c r="N3">
         <v>0.4696</v>
       </c>
-      <c r="N2">
+      <c r="O3">
         <v>0.6327</v>
       </c>
-      <c r="O2">
+      <c r="P3">
         <v>0.6236</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="Q3" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3">
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4">
         <v>100</v>
       </c>
-      <c r="I3">
+      <c r="J4">
         <v>89</v>
       </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3">
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4">
         <v>0.9937</v>
       </c>
-      <c r="L3">
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="M3">
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="N3">
+      <c r="O4">
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="P4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="Q4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" t="s">
+        <v>29</v>
+      </c>
+      <c r="S4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4">
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5">
         <v>100</v>
       </c>
-      <c r="I4">
+      <c r="J5">
         <v>89</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5">
+        <v>0.8667</v>
+      </c>
+      <c r="M5">
+        <v>0.885</v>
+      </c>
+      <c r="N5">
+        <v>0.8223</v>
+      </c>
+      <c r="O5">
+        <v>0.8667</v>
+      </c>
+      <c r="P5">
+        <v>0.8709</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="K4">
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>89</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6">
+        <v>0.8269</v>
+      </c>
+      <c r="M6">
+        <v>0.831</v>
+      </c>
+      <c r="N6">
+        <v>0.5557</v>
+      </c>
+      <c r="O6">
+        <v>0.7885</v>
+      </c>
+      <c r="P6">
+        <v>0.6942</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>28</v>
+      </c>
+      <c r="R6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8">
+        <v>200</v>
+      </c>
+      <c r="J8">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8">
+        <v>0.6327</v>
+      </c>
+      <c r="M8">
+        <v>0.6733</v>
+      </c>
+      <c r="N8">
+        <v>0.3882</v>
+      </c>
+      <c r="O8">
+        <v>0.8163</v>
+      </c>
+      <c r="P8">
+        <v>0.5554</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9">
+        <v>200</v>
+      </c>
+      <c r="J9">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9">
+        <v>0.9937</v>
+      </c>
+      <c r="M9">
+        <v>0.998</v>
+      </c>
+      <c r="N9">
+        <v>0.9636</v>
+      </c>
+      <c r="O9">
+        <v>0.9906</v>
+      </c>
+      <c r="P9">
+        <v>0.9731</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>200</v>
+      </c>
+      <c r="J10">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10">
+        <v>0.8444</v>
+      </c>
+      <c r="M10">
+        <v>0.9</v>
+      </c>
+      <c r="N10">
+        <v>0.8051</v>
+      </c>
+      <c r="O10">
+        <v>0.8444</v>
+      </c>
+      <c r="P10">
+        <v>0.8597</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11">
+        <v>200</v>
+      </c>
+      <c r="J11">
+        <v>97</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11">
+        <v>0.8077</v>
+      </c>
+      <c r="M11">
+        <v>0.8172</v>
+      </c>
+      <c r="N11">
+        <v>0.506</v>
+      </c>
+      <c r="O11">
+        <v>0.6923</v>
+      </c>
+      <c r="P11">
+        <v>0.6558</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13">
+        <v>200</v>
+      </c>
+      <c r="J13">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13">
+        <v>0.7959</v>
+      </c>
+      <c r="M13">
+        <v>0.81</v>
+      </c>
+      <c r="N13">
+        <v>0.3751</v>
+      </c>
+      <c r="O13">
+        <v>0.7347</v>
+      </c>
+      <c r="P13">
+        <v>0.5566</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14">
+        <v>200</v>
+      </c>
+      <c r="J14">
+        <v>30</v>
+      </c>
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14">
+        <v>0.8396</v>
+      </c>
+      <c r="M14">
+        <v>0.9254</v>
+      </c>
+      <c r="N14">
+        <v>0.6342</v>
+      </c>
+      <c r="O14">
+        <v>0.8145</v>
+      </c>
+      <c r="P14">
+        <v>0.7513</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15">
+        <v>200</v>
+      </c>
+      <c r="J15">
+        <v>30</v>
+      </c>
+      <c r="K15" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15">
+        <v>0.8444</v>
+      </c>
+      <c r="M15">
+        <v>0.98</v>
+      </c>
+      <c r="N15">
+        <v>0.8444</v>
+      </c>
+      <c r="O15">
+        <v>0.9111</v>
+      </c>
+      <c r="P15">
+        <v>0.8849</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16">
+        <v>200</v>
+      </c>
+      <c r="J16">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16">
+        <v>0.8077</v>
+      </c>
+      <c r="M16">
+        <v>0.8925</v>
+      </c>
+      <c r="N16">
+        <v>0.504</v>
+      </c>
+      <c r="O16">
+        <v>0.7308</v>
+      </c>
+      <c r="P16">
+        <v>0.646</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18">
+        <v>200</v>
+      </c>
+      <c r="J18">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18">
+        <v>0.7347</v>
+      </c>
+      <c r="M18">
+        <v>0.745</v>
+      </c>
+      <c r="N18">
+        <v>0.4288</v>
+      </c>
+      <c r="O18">
+        <v>0.7347</v>
+      </c>
+      <c r="P18">
+        <v>0.5821</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>28</v>
+      </c>
+      <c r="R18" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19">
+        <v>200</v>
+      </c>
+      <c r="J19">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19">
+        <v>0.8899</v>
+      </c>
+      <c r="M19">
+        <v>0.9598</v>
+      </c>
+      <c r="N19">
+        <v>0.7071</v>
+      </c>
+      <c r="O19">
+        <v>0.8522</v>
+      </c>
+      <c r="P19">
+        <v>0.796</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>45</v>
+      </c>
+      <c r="R19">
+        <v>0.8129</v>
+      </c>
+      <c r="S19">
+        <v>0.9193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20">
+        <v>200</v>
+      </c>
+      <c r="J20">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20">
+        <v>0.9111</v>
+      </c>
+      <c r="M20">
+        <v>0.915</v>
+      </c>
+      <c r="N20">
+        <v>0.7883</v>
+      </c>
+      <c r="O20">
+        <v>0.8889</v>
+      </c>
+      <c r="P20">
+        <v>0.8516</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21">
+        <v>200</v>
+      </c>
+      <c r="J21">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21">
+        <v>0.7308</v>
+      </c>
+      <c r="M21">
+        <v>0.8018</v>
+      </c>
+      <c r="N21">
+        <v>0.4629</v>
+      </c>
+      <c r="O21">
+        <v>0.75</v>
+      </c>
+      <c r="P21">
+        <v>0.6083</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" t="s">
+        <v>29</v>
+      </c>
+      <c r="S21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22">
+        <v>200</v>
+      </c>
+      <c r="J22">
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22">
+        <v>0.8578</v>
+      </c>
+      <c r="M22">
+        <v>0.9065</v>
+      </c>
+      <c r="N22">
+        <v>0.6459</v>
+      </c>
+      <c r="O22">
+        <v>0.8427</v>
+      </c>
+      <c r="P22">
+        <v>0.7513</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>28</v>
+      </c>
+      <c r="R22" t="s">
+        <v>29</v>
+      </c>
+      <c r="S22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23">
+        <v>200</v>
+      </c>
+      <c r="J23">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23">
+        <v>0.7877</v>
+      </c>
+      <c r="M23">
+        <v>0.8002</v>
+      </c>
+      <c r="N23">
+        <v>0.527</v>
+      </c>
+      <c r="O23">
+        <v>0.822</v>
+      </c>
+      <c r="P23">
+        <v>0.6655</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>28</v>
+      </c>
+      <c r="R23" t="s">
+        <v>29</v>
+      </c>
+      <c r="S23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25">
+        <v>200</v>
+      </c>
+      <c r="J25">
+        <v>77</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25">
+        <v>0.7347</v>
+      </c>
+      <c r="M25">
+        <v>0.8317</v>
+      </c>
+      <c r="N25">
+        <v>0.4494</v>
+      </c>
+      <c r="O25">
+        <v>0.7143</v>
+      </c>
+      <c r="P25">
+        <v>0.6052</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25" t="s">
+        <v>29</v>
+      </c>
+      <c r="S25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26">
+        <v>200</v>
+      </c>
+      <c r="J26">
+        <v>77</v>
+      </c>
+      <c r="K26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L26">
+        <v>0.8994</v>
+      </c>
+      <c r="M26">
+        <v>0.9593</v>
+      </c>
+      <c r="N26">
+        <v>0.7236</v>
+      </c>
+      <c r="O26">
+        <v>0.8585</v>
+      </c>
+      <c r="P26">
+        <v>0.81</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>45</v>
+      </c>
+      <c r="R26">
+        <v>0.8498</v>
+      </c>
+      <c r="S26">
+        <v>0.9257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27">
+        <v>200</v>
+      </c>
+      <c r="J27">
+        <v>77</v>
+      </c>
+      <c r="K27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27">
+        <v>0.8444</v>
+      </c>
+      <c r="M27">
+        <v>0.95</v>
+      </c>
+      <c r="N27">
+        <v>0.8216</v>
+      </c>
+      <c r="O27">
         <v>0.8667</v>
       </c>
-      <c r="L4">
-        <v>0.885</v>
-      </c>
-      <c r="M4">
-        <v>0.8223</v>
-      </c>
-      <c r="N4">
+      <c r="P27">
+        <v>0.8736</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>28</v>
+      </c>
+      <c r="R27" t="s">
+        <v>29</v>
+      </c>
+      <c r="S27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28">
+        <v>200</v>
+      </c>
+      <c r="J28">
+        <v>77</v>
+      </c>
+      <c r="K28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28">
+        <v>0.75</v>
+      </c>
+      <c r="M28">
+        <v>0.8618</v>
+      </c>
+      <c r="N28">
+        <v>0.5208</v>
+      </c>
+      <c r="O28">
+        <v>0.6346</v>
+      </c>
+      <c r="P28">
+        <v>0.6628</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>28</v>
+      </c>
+      <c r="R28" t="s">
+        <v>29</v>
+      </c>
+      <c r="S28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29">
+        <v>200</v>
+      </c>
+      <c r="J29">
+        <v>77</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
+      </c>
+      <c r="L29">
+        <v>0.8599</v>
+      </c>
+      <c r="M29">
+        <v>0.9307</v>
+      </c>
+      <c r="N29">
+        <v>0.6635</v>
+      </c>
+      <c r="O29">
+        <v>0.8384</v>
+      </c>
+      <c r="P29">
+        <v>0.7676</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>28</v>
+      </c>
+      <c r="R29" t="s">
+        <v>29</v>
+      </c>
+      <c r="S29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30">
+        <v>200</v>
+      </c>
+      <c r="J30">
+        <v>77</v>
+      </c>
+      <c r="K30" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30">
+        <v>0.774</v>
+      </c>
+      <c r="M30">
+        <v>0.8673</v>
+      </c>
+      <c r="N30">
+        <v>0.5493</v>
+      </c>
+      <c r="O30">
+        <v>0.726</v>
+      </c>
+      <c r="P30">
+        <v>0.687</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>28</v>
+      </c>
+      <c r="R30" t="s">
+        <v>29</v>
+      </c>
+      <c r="S30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32">
+        <v>200</v>
+      </c>
+      <c r="J32">
+        <v>27</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32">
+        <v>0.6939</v>
+      </c>
+      <c r="M32">
+        <v>0.84</v>
+      </c>
+      <c r="N32">
+        <v>0.4236</v>
+      </c>
+      <c r="O32">
+        <v>0.6939</v>
+      </c>
+      <c r="P32">
+        <v>0.5785</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>28</v>
+      </c>
+      <c r="R32" t="s">
+        <v>29</v>
+      </c>
+      <c r="S32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33">
+        <v>200</v>
+      </c>
+      <c r="J33">
+        <v>27</v>
+      </c>
+      <c r="K33" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33">
+        <v>0.8899</v>
+      </c>
+      <c r="M33">
+        <v>0.9682</v>
+      </c>
+      <c r="N33">
+        <v>0.753</v>
+      </c>
+      <c r="O33">
+        <v>0.8522</v>
+      </c>
+      <c r="P33">
+        <v>0.8246</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34">
+        <v>200</v>
+      </c>
+      <c r="J34">
+        <v>27</v>
+      </c>
+      <c r="K34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34">
+        <v>0.8</v>
+      </c>
+      <c r="M34">
+        <v>0.935</v>
+      </c>
+      <c r="N34">
+        <v>0.7894</v>
+      </c>
+      <c r="O34">
+        <v>0.8444</v>
+      </c>
+      <c r="P34">
+        <v>0.845</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>28</v>
+      </c>
+      <c r="R34" t="s">
+        <v>29</v>
+      </c>
+      <c r="S34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35">
+        <v>200</v>
+      </c>
+      <c r="J35">
+        <v>27</v>
+      </c>
+      <c r="K35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35">
+        <v>0.7885</v>
+      </c>
+      <c r="M35">
+        <v>0.8218</v>
+      </c>
+      <c r="N35">
+        <v>0.5592</v>
+      </c>
+      <c r="O35">
+        <v>0.8269</v>
+      </c>
+      <c r="P35">
+        <v>0.6872</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>28</v>
+      </c>
+      <c r="R35" t="s">
+        <v>29</v>
+      </c>
+      <c r="S35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36">
+        <v>200</v>
+      </c>
+      <c r="J36">
+        <v>27</v>
+      </c>
+      <c r="K36" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36">
+        <v>0.8491</v>
+      </c>
+      <c r="M36">
+        <v>0.9355</v>
+      </c>
+      <c r="N36">
+        <v>0.6766</v>
+      </c>
+      <c r="O36">
+        <v>0.8039</v>
+      </c>
+      <c r="P36">
+        <v>0.7748</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>28</v>
+      </c>
+      <c r="R36" t="s">
+        <v>29</v>
+      </c>
+      <c r="S36" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37">
+        <v>200</v>
+      </c>
+      <c r="J37">
+        <v>27</v>
+      </c>
+      <c r="K37" t="s">
+        <v>47</v>
+      </c>
+      <c r="L37">
+        <v>0.7603</v>
+      </c>
+      <c r="M37">
+        <v>0.8654</v>
+      </c>
+      <c r="N37">
+        <v>0.5397</v>
+      </c>
+      <c r="O37">
+        <v>0.7671</v>
+      </c>
+      <c r="P37">
+        <v>0.6809</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>28</v>
+      </c>
+      <c r="R37" t="s">
+        <v>29</v>
+      </c>
+      <c r="S37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39">
+        <v>200</v>
+      </c>
+      <c r="J39">
+        <v>191</v>
+      </c>
+      <c r="K39" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39">
+        <v>0.7551</v>
+      </c>
+      <c r="M39">
+        <v>0.83</v>
+      </c>
+      <c r="N39">
+        <v>0.434</v>
+      </c>
+      <c r="O39">
+        <v>0.7755</v>
+      </c>
+      <c r="P39">
+        <v>0.5867</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>28</v>
+      </c>
+      <c r="R39" t="s">
+        <v>29</v>
+      </c>
+      <c r="S39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40">
+        <v>200</v>
+      </c>
+      <c r="J40">
+        <v>191</v>
+      </c>
+      <c r="K40" t="s">
+        <v>30</v>
+      </c>
+      <c r="L40">
+        <v>0.9308</v>
+      </c>
+      <c r="M40">
+        <v>0.9766</v>
+      </c>
+      <c r="N40">
+        <v>0.7989</v>
+      </c>
+      <c r="O40">
+        <v>0.9025</v>
+      </c>
+      <c r="P40">
+        <v>0.8546</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41">
+        <v>200</v>
+      </c>
+      <c r="J41">
+        <v>191</v>
+      </c>
+      <c r="K41" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41">
         <v>0.8667</v>
       </c>
-      <c r="O4">
-        <v>0.8709</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
-      <c r="I5">
-        <v>89</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5">
-        <v>0.8269</v>
-      </c>
-      <c r="L5">
-        <v>0.831</v>
-      </c>
-      <c r="M5">
-        <v>0.5557</v>
-      </c>
-      <c r="N5">
-        <v>0.7885</v>
-      </c>
-      <c r="O5">
-        <v>0.6942</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="M41">
+        <v>0.93</v>
+      </c>
+      <c r="N41">
+        <v>0.8068</v>
+      </c>
+      <c r="O41">
+        <v>0.8667</v>
+      </c>
+      <c r="P41">
+        <v>0.8647</v>
+      </c>
+      <c r="Q41" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7">
+      <c r="R41" t="s">
+        <v>29</v>
+      </c>
+      <c r="S41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G42" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I42">
         <v>200</v>
       </c>
-      <c r="I7">
-        <v>97</v>
-      </c>
-      <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7">
-        <v>0.6327</v>
-      </c>
-      <c r="L7">
-        <v>0.6733</v>
-      </c>
-      <c r="M7">
-        <v>0.3882</v>
-      </c>
-      <c r="N7">
-        <v>0.8163</v>
-      </c>
-      <c r="O7">
-        <v>0.5554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="J42">
+        <v>191</v>
+      </c>
+      <c r="K42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42">
+        <v>0.75</v>
+      </c>
+      <c r="M42">
+        <v>0.8618</v>
+      </c>
+      <c r="N42">
+        <v>0.5825</v>
+      </c>
+      <c r="O42">
+        <v>0.7692</v>
+      </c>
+      <c r="P42">
+        <v>0.6958</v>
+      </c>
+      <c r="Q42" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8">
+      <c r="R42" t="s">
+        <v>29</v>
+      </c>
+      <c r="S42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" t="s">
+        <v>25</v>
+      </c>
+      <c r="H43" t="s">
+        <v>58</v>
+      </c>
+      <c r="I43">
         <v>200</v>
       </c>
-      <c r="I8">
-        <v>97</v>
-      </c>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8">
-        <v>0.9937</v>
-      </c>
-      <c r="L8">
-        <v>0.998</v>
-      </c>
-      <c r="M8">
-        <v>0.9636</v>
-      </c>
-      <c r="N8">
-        <v>0.9906</v>
-      </c>
-      <c r="O8">
-        <v>0.9731</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="J43">
+        <v>191</v>
+      </c>
+      <c r="K43" t="s">
+        <v>46</v>
+      </c>
+      <c r="L43">
+        <v>0.8858</v>
+      </c>
+      <c r="M43">
+        <v>0.943</v>
+      </c>
+      <c r="N43">
+        <v>0.7129</v>
+      </c>
+      <c r="O43">
+        <v>0.8578</v>
+      </c>
+      <c r="P43">
+        <v>0.7949</v>
+      </c>
+      <c r="Q43" t="s">
         <v>28</v>
       </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9">
+      <c r="R43" t="s">
+        <v>29</v>
+      </c>
+      <c r="S43" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" t="s">
+        <v>58</v>
+      </c>
+      <c r="I44">
         <v>200</v>
       </c>
-      <c r="I9">
-        <v>97</v>
-      </c>
-      <c r="J9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <v>0.8444</v>
-      </c>
-      <c r="L9">
-        <v>0.9</v>
-      </c>
-      <c r="M9">
-        <v>0.8051</v>
-      </c>
-      <c r="N9">
-        <v>0.8444</v>
-      </c>
-      <c r="O9">
-        <v>0.8597</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="J44">
+        <v>191</v>
+      </c>
+      <c r="K44" t="s">
+        <v>47</v>
+      </c>
+      <c r="L44">
+        <v>0.7877</v>
+      </c>
+      <c r="M44">
+        <v>0.8671</v>
+      </c>
+      <c r="N44">
+        <v>0.5611</v>
+      </c>
+      <c r="O44">
+        <v>0.7945</v>
+      </c>
+      <c r="P44">
+        <v>0.6846</v>
+      </c>
+      <c r="Q44" t="s">
         <v>28</v>
       </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10">
-        <v>200</v>
-      </c>
-      <c r="I10">
-        <v>97</v>
-      </c>
-      <c r="J10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8077</v>
-      </c>
-      <c r="L10">
-        <v>0.8172</v>
-      </c>
-      <c r="M10">
-        <v>0.506</v>
-      </c>
-      <c r="N10">
-        <v>0.6923</v>
-      </c>
-      <c r="O10">
-        <v>0.6558</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12">
-        <v>200</v>
-      </c>
-      <c r="I12">
-        <v>30</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12">
-        <v>0.7959</v>
-      </c>
-      <c r="L12">
-        <v>0.81</v>
-      </c>
-      <c r="M12">
-        <v>0.3751</v>
-      </c>
-      <c r="N12">
-        <v>0.7347</v>
-      </c>
-      <c r="O12">
-        <v>0.5566</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13">
-        <v>200</v>
-      </c>
-      <c r="I13">
-        <v>30</v>
-      </c>
-      <c r="J13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13">
-        <v>0.8396</v>
-      </c>
-      <c r="L13">
-        <v>0.9254</v>
-      </c>
-      <c r="M13">
-        <v>0.6342</v>
-      </c>
-      <c r="N13">
-        <v>0.8145</v>
-      </c>
-      <c r="O13">
-        <v>0.7513</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14">
-        <v>200</v>
-      </c>
-      <c r="I14">
-        <v>30</v>
-      </c>
-      <c r="J14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14">
-        <v>0.8444</v>
-      </c>
-      <c r="L14">
-        <v>0.98</v>
-      </c>
-      <c r="M14">
-        <v>0.8444</v>
-      </c>
-      <c r="N14">
-        <v>0.9111</v>
-      </c>
-      <c r="O14">
-        <v>0.8849</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15">
-        <v>200</v>
-      </c>
-      <c r="I15">
-        <v>30</v>
-      </c>
-      <c r="J15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K15">
-        <v>0.8077</v>
-      </c>
-      <c r="L15">
-        <v>0.8925</v>
-      </c>
-      <c r="M15">
-        <v>0.504</v>
-      </c>
-      <c r="N15">
-        <v>0.7308</v>
-      </c>
-      <c r="O15">
-        <v>0.646</v>
+      <c r="R44" t="s">
+        <v>29</v>
+      </c>
+      <c r="S44" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/mnf实验记录.xlsx
+++ b/mnf实验记录.xlsx
@@ -1137,8 +1137,8 @@
   <sheetPr/>
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="H22" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -2698,7 +2698,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:19">
       <c r="A33" s="1" t="s">
         <v>52</v>
       </c>
@@ -2749,6 +2749,12 @@
       </c>
       <c r="Q33" t="s">
         <v>45</v>
+      </c>
+      <c r="R33">
+        <v>0.8353</v>
+      </c>
+      <c r="S33">
+        <v>0.9289</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -3046,7 +3052,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:19">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
@@ -3097,6 +3103,12 @@
       </c>
       <c r="Q40" t="s">
         <v>45</v>
+      </c>
+      <c r="R40">
+        <v>0.85</v>
+      </c>
+      <c r="S40">
+        <v>0.9299</v>
       </c>
     </row>
     <row r="41" spans="1:19">
